--- a/share/doc/validation/SystemValidationData.xlsx
+++ b/share/doc/validation/SystemValidationData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1320" windowWidth="11850" windowHeight="6645" tabRatio="724" activeTab="6"/>
+    <workbookView xWindow="720" yWindow="1320" windowWidth="11850" windowHeight="6645" tabRatio="724"/>
   </bookViews>
   <sheets>
     <sheet name="Blood Chemistry" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="1125">
   <si>
     <t>Output</t>
   </si>
@@ -2540,12 +2540,6 @@
     <t>4g</t>
   </si>
   <si>
-    <t>converted from 1.2 +- 0.1 mmol/L</t>
-  </si>
-  <si>
-    <t>[44.08,52.1]</t>
-  </si>
-  <si>
     <t>[5.0,15.0]</t>
   </si>
   <si>
@@ -3522,6 +3516,15 @@
   </si>
   <si>
     <t>[9.8,9.9]</t>
+  </si>
+  <si>
+    <t>payne1973interpretation</t>
+  </si>
+  <si>
+    <t>[88.0, 105.0]</t>
+  </si>
+  <si>
+    <t>converted from 1.2 +- 0.1 mmol/L, old value was ionized calcium (not generally used in metabolic blood panels</t>
   </si>
 </sst>
 </file>
@@ -5161,9 +5164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L327"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -5247,7 +5250,7 @@
       </c>
       <c r="K2" s="80"/>
       <c r="L2" s="80" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="24">
@@ -5275,7 +5278,7 @@
       </c>
       <c r="K3" s="80"/>
       <c r="L3" s="80" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5303,7 +5306,7 @@
       </c>
       <c r="K4" s="80"/>
       <c r="L4" s="80" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24">
@@ -5335,12 +5338,12 @@
       </c>
       <c r="K5" s="80"/>
       <c r="L5" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="89" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B6" s="82"/>
       <c r="C6" s="82" t="s">
@@ -5355,7 +5358,7 @@
       <c r="F6" s="82"/>
       <c r="G6" s="82"/>
       <c r="H6" s="183" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I6" s="78"/>
       <c r="J6" s="80" t="s">
@@ -5363,12 +5366,12 @@
       </c>
       <c r="K6" s="80"/>
       <c r="L6" s="80" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="152" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B7" s="183"/>
       <c r="C7" s="183" t="s">
@@ -5380,7 +5383,7 @@
       <c r="E7" s="183"/>
       <c r="F7" s="183"/>
       <c r="G7" s="183" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="78"/>
@@ -5417,7 +5420,7 @@
       </c>
       <c r="K8" s="80"/>
       <c r="L8" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -5447,7 +5450,7 @@
       </c>
       <c r="K9" s="80"/>
       <c r="L9" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="24">
@@ -5475,7 +5478,7 @@
       </c>
       <c r="K10" s="80"/>
       <c r="L10" s="80" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="27.75" customHeight="1">
@@ -5489,10 +5492,10 @@
         <v>169</v>
       </c>
       <c r="D11" s="155" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E11" s="150" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F11" s="150"/>
       <c r="G11" s="150"/>
@@ -5503,7 +5506,7 @@
       </c>
       <c r="K11" s="157"/>
       <c r="L11" s="157" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="27.75" customHeight="1">
@@ -5537,12 +5540,12 @@
       </c>
       <c r="K12" s="80"/>
       <c r="L12" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="24">
       <c r="A13" s="152" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B13" s="183"/>
       <c r="C13" s="183" t="s">
@@ -5565,7 +5568,7 @@
       </c>
       <c r="K13" s="185"/>
       <c r="L13" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="24">
@@ -5600,7 +5603,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="152" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B15" s="183"/>
       <c r="C15" s="183"/>
@@ -5639,7 +5642,7 @@
       </c>
       <c r="K16" s="80"/>
       <c r="L16" s="80" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5653,10 +5656,10 @@
         <v>169</v>
       </c>
       <c r="D17" s="155" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E17" s="150" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F17" s="150"/>
       <c r="G17" s="150"/>
@@ -5667,7 +5670,7 @@
       </c>
       <c r="K17" s="157"/>
       <c r="L17" s="157" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5697,7 +5700,7 @@
       </c>
       <c r="K18" s="80"/>
       <c r="L18" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5723,7 +5726,7 @@
       </c>
       <c r="K19" s="80"/>
       <c r="L19" s="80" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -5749,7 +5752,7 @@
       </c>
       <c r="K20" s="80"/>
       <c r="L20" s="80" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -5786,7 +5789,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="59" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B22" s="66" t="s">
         <v>1</v>
@@ -5824,7 +5827,7 @@
     </row>
     <row r="23" spans="1:12" ht="56.25">
       <c r="A23" s="141" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B23" s="142" t="s">
         <v>761</v>
@@ -5849,12 +5852,12 @@
       </c>
       <c r="K23" s="144"/>
       <c r="L23" s="144" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="22.5">
       <c r="A24" s="21" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B24" s="70" t="s">
         <v>11</v>
@@ -5881,12 +5884,12 @@
       </c>
       <c r="K24" s="80"/>
       <c r="L24" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="89" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B25" s="70" t="s">
         <v>11</v>
@@ -5913,12 +5916,12 @@
       </c>
       <c r="K25" s="80"/>
       <c r="L25" s="80" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="24">
       <c r="A26" s="89" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B26" s="70" t="s">
         <v>761</v>
@@ -5927,17 +5930,17 @@
         <v>169</v>
       </c>
       <c r="D26" s="84" t="s">
-        <v>801</v>
+        <v>1123</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>574</v>
+        <v>1122</v>
       </c>
       <c r="F26" s="84" t="s">
         <v>107</v>
       </c>
       <c r="G26" s="84"/>
       <c r="H26" s="82" t="s">
-        <v>800</v>
+        <v>1124</v>
       </c>
       <c r="I26" s="88"/>
       <c r="J26" s="80" t="s">
@@ -5945,12 +5948,12 @@
       </c>
       <c r="K26" s="80"/>
       <c r="L26" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="36">
       <c r="A27" s="148" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B27" s="145" t="s">
         <v>44</v>
@@ -5975,12 +5978,12 @@
       <c r="J27" s="147"/>
       <c r="K27" s="147"/>
       <c r="L27" s="147" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="24">
       <c r="A28" s="89" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B28" s="83" t="s">
         <v>761</v>
@@ -5989,7 +5992,7 @@
         <v>169</v>
       </c>
       <c r="D28" s="85" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E28" s="84" t="s">
         <v>105</v>
@@ -6005,12 +6008,12 @@
       </c>
       <c r="K28" s="80"/>
       <c r="L28" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="60">
       <c r="A29" s="152" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B29" s="153" t="s">
         <v>763</v>
@@ -6019,10 +6022,10 @@
         <v>169</v>
       </c>
       <c r="D29" s="183" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E29" s="154" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F29" s="154"/>
       <c r="G29" s="154"/>
@@ -6031,12 +6034,12 @@
       <c r="J29" s="151"/>
       <c r="K29" s="151"/>
       <c r="L29" s="151" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="89" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B30" s="83" t="s">
         <v>11</v>
@@ -6061,12 +6064,12 @@
       </c>
       <c r="K30" s="80"/>
       <c r="L30" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="89" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B31" s="83" t="s">
         <v>10</v>
@@ -6091,12 +6094,12 @@
       </c>
       <c r="K31" s="80"/>
       <c r="L31" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="36">
       <c r="A32" s="89" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B32" s="82" t="s">
         <v>11</v>
@@ -6125,12 +6128,12 @@
       </c>
       <c r="K32" s="80"/>
       <c r="L32" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="24">
       <c r="A33" s="89" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B33" s="156" t="s">
         <v>763</v>
@@ -6139,7 +6142,7 @@
         <v>169</v>
       </c>
       <c r="D33" s="87" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E33" s="158" t="s">
         <v>615</v>
@@ -6149,7 +6152,7 @@
       </c>
       <c r="G33" s="87"/>
       <c r="H33" s="88" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I33" s="88"/>
       <c r="J33" s="80" t="s">
@@ -6157,12 +6160,12 @@
       </c>
       <c r="K33" s="80"/>
       <c r="L33" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="24">
       <c r="A34" s="89" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B34" s="156" t="s">
         <v>761</v>
@@ -6189,12 +6192,12 @@
       </c>
       <c r="K34" s="80"/>
       <c r="L34" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="24">
       <c r="A35" s="89" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B35" s="156" t="s">
         <v>761</v>
@@ -6221,12 +6224,12 @@
       </c>
       <c r="K35" s="80"/>
       <c r="L35" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="24">
       <c r="A36" s="89" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B36" s="70" t="s">
         <v>11</v>
@@ -6253,12 +6256,12 @@
       </c>
       <c r="K36" s="80"/>
       <c r="L36" s="80" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="89" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B37" s="87" t="s">
         <v>10</v>
@@ -6283,12 +6286,12 @@
       </c>
       <c r="K37" s="80"/>
       <c r="L37" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="36">
       <c r="A38" s="89" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B38" s="87" t="s">
         <v>10</v>
@@ -6317,7 +6320,7 @@
       </c>
       <c r="K38" s="157"/>
       <c r="L38" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -6383,7 +6386,7 @@
       </c>
       <c r="K40" s="80"/>
       <c r="L40" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -6413,7 +6416,7 @@
       </c>
       <c r="K41" s="80"/>
       <c r="L41" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -6443,7 +6446,7 @@
       </c>
       <c r="K42" s="80"/>
       <c r="L42" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -6473,7 +6476,7 @@
       </c>
       <c r="K43" s="80"/>
       <c r="L43" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -6503,7 +6506,7 @@
       </c>
       <c r="K44" s="80"/>
       <c r="L44" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -6533,7 +6536,7 @@
       </c>
       <c r="K45" s="80"/>
       <c r="L45" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -6563,7 +6566,7 @@
       </c>
       <c r="K46" s="80"/>
       <c r="L46" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -6593,7 +6596,7 @@
       </c>
       <c r="K47" s="80"/>
       <c r="L47" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -6661,7 +6664,7 @@
         <v>424</v>
       </c>
       <c r="L49" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -6695,7 +6698,7 @@
         <v>424</v>
       </c>
       <c r="L50" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15">
@@ -6727,7 +6730,7 @@
         <v>424</v>
       </c>
       <c r="L51" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -6757,7 +6760,7 @@
         <v>424</v>
       </c>
       <c r="L52" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -6789,7 +6792,7 @@
         <v>424</v>
       </c>
       <c r="L53" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="12.75">
@@ -6889,7 +6892,7 @@
         <v>424</v>
       </c>
       <c r="L56" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -6957,7 +6960,7 @@
         <v>425</v>
       </c>
       <c r="L58" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -6981,7 +6984,7 @@
         <v>425</v>
       </c>
       <c r="L59" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -7005,7 +7008,7 @@
         <v>425</v>
       </c>
       <c r="L60" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -7029,7 +7032,7 @@
         <v>425</v>
       </c>
       <c r="L61" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -7063,7 +7066,7 @@
         <v>425</v>
       </c>
       <c r="L62" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -7078,11 +7081,11 @@
       </c>
       <c r="D63" s="14" t="str">
         <f>D26</f>
-        <v>[44.08,52.1]</v>
+        <v>[88.0, 105.0]</v>
       </c>
       <c r="E63" s="14" t="str">
         <f>E26</f>
-        <v>cheuvront2014comparison</v>
+        <v>payne1973interpretation</v>
       </c>
       <c r="F63" s="88"/>
       <c r="G63" s="88"/>
@@ -7095,12 +7098,12 @@
         <v>425</v>
       </c>
       <c r="L63" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="104" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>457</v>
@@ -7109,7 +7112,7 @@
         <v>169</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>589</v>
@@ -7125,7 +7128,7 @@
         <v>425</v>
       </c>
       <c r="L64" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -7156,7 +7159,7 @@
         <v>425</v>
       </c>
       <c r="L65" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -7188,7 +7191,7 @@
         <v>425</v>
       </c>
       <c r="L66" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -7202,10 +7205,10 @@
         <v>169</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F67" s="88"/>
       <c r="G67" s="88"/>
@@ -7218,12 +7221,12 @@
         <v>425</v>
       </c>
       <c r="L67" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="104" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B68" s="88" t="s">
         <v>457</v>
@@ -7232,10 +7235,10 @@
         <v>169</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F68" s="88"/>
       <c r="G68" s="88"/>
@@ -7248,7 +7251,7 @@
         <v>425</v>
       </c>
       <c r="L68" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -7280,7 +7283,7 @@
         <v>425</v>
       </c>
       <c r="L69" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -7304,7 +7307,7 @@
         <v>425</v>
       </c>
       <c r="L70" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -7336,7 +7339,7 @@
         <v>425</v>
       </c>
       <c r="L71" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -8229,15 +8232,15 @@
       </c>
       <c r="K3" s="80"/>
       <c r="L3" s="80" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="36.75" customHeight="1">
       <c r="A4" s="152" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B4" s="183" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C4" s="183" t="s">
         <v>169</v>
@@ -8259,7 +8262,7 @@
       </c>
       <c r="K4" s="185"/>
       <c r="L4" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45.75" customHeight="1">
@@ -8289,7 +8292,7 @@
       </c>
       <c r="K5" s="80"/>
       <c r="L5" s="80" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60">
@@ -8306,7 +8309,7 @@
         <v>523</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F6" s="82" t="s">
         <v>532</v>
@@ -8326,7 +8329,7 @@
     </row>
     <row r="7" spans="1:12" ht="36">
       <c r="A7" s="152" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B7" s="183" t="s">
         <v>6</v>
@@ -8335,16 +8338,16 @@
         <v>169</v>
       </c>
       <c r="D7" s="179" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E7" s="183" t="s">
         <v>95</v>
       </c>
       <c r="F7" s="183" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G7" s="184" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H7" s="174"/>
       <c r="I7" s="109"/>
@@ -8353,12 +8356,12 @@
       </c>
       <c r="K7" s="185"/>
       <c r="L7" s="185" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="152" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B8" s="174" t="s">
         <v>5</v>
@@ -8367,10 +8370,10 @@
         <v>169</v>
       </c>
       <c r="D8" s="179" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E8" s="191" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F8" s="183"/>
       <c r="G8" s="184"/>
@@ -8381,7 +8384,7 @@
       </c>
       <c r="K8" s="185"/>
       <c r="L8" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="45.75" customHeight="1">
@@ -8398,7 +8401,7 @@
         <v>525</v>
       </c>
       <c r="E9" s="84" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F9" s="82" t="s">
         <v>532</v>
@@ -8413,7 +8416,7 @@
       </c>
       <c r="K9" s="80"/>
       <c r="L9" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="27.75" customHeight="1">
@@ -8441,7 +8444,7 @@
       </c>
       <c r="K10" s="80"/>
       <c r="L10" s="80" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="74.25" customHeight="1">
@@ -8470,7 +8473,7 @@
       </c>
       <c r="K11" s="80"/>
       <c r="L11" s="80" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="73" customFormat="1">
@@ -8520,12 +8523,12 @@
       </c>
       <c r="K13" s="80"/>
       <c r="L13" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="152" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B14" s="174" t="s">
         <v>5</v>
@@ -8534,14 +8537,14 @@
         <v>169</v>
       </c>
       <c r="D14" s="179" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E14" s="191" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F14" s="183"/>
       <c r="G14" s="184" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H14" s="174"/>
       <c r="I14" s="109"/>
@@ -8550,7 +8553,7 @@
       </c>
       <c r="K14" s="185"/>
       <c r="L14" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="40.5" customHeight="1">
@@ -8567,7 +8570,7 @@
         <v>529</v>
       </c>
       <c r="E15" s="84" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F15" s="82" t="s">
         <v>532</v>
@@ -8582,7 +8585,7 @@
       </c>
       <c r="K15" s="80"/>
       <c r="L15" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="73" customFormat="1">
@@ -8639,7 +8642,7 @@
         <v>523</v>
       </c>
       <c r="E18" s="84" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F18" s="82" t="s">
         <v>532</v>
@@ -8654,7 +8657,7 @@
       </c>
       <c r="K18" s="80"/>
       <c r="L18" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="73" customFormat="1" ht="24">
@@ -8687,7 +8690,7 @@
       </c>
       <c r="K19" s="80"/>
       <c r="L19" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="73" customFormat="1" ht="24">
@@ -8724,7 +8727,7 @@
         <v>530</v>
       </c>
       <c r="E21" s="84" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F21" s="83" t="s">
         <v>532</v>
@@ -8739,7 +8742,7 @@
       </c>
       <c r="K21" s="80"/>
       <c r="L21" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="73" customFormat="1" ht="24">
@@ -8756,7 +8759,7 @@
         <v>545</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F22" s="82" t="s">
         <v>537</v>
@@ -8771,7 +8774,7 @@
       </c>
       <c r="K22" s="80"/>
       <c r="L22" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="73" customFormat="1">
@@ -8788,7 +8791,7 @@
         <v>538</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F23" s="82"/>
       <c r="G23" s="82"/>
@@ -8799,7 +8802,7 @@
       </c>
       <c r="K23" s="80"/>
       <c r="L23" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="73" customFormat="1">
@@ -8856,7 +8859,7 @@
         <v>172</v>
       </c>
       <c r="E26" s="84" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F26" s="82" t="s">
         <v>532</v>
@@ -8871,12 +8874,12 @@
       </c>
       <c r="K26" s="80"/>
       <c r="L26" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="73" customFormat="1" ht="24">
       <c r="A27" s="152" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B27" s="183" t="s">
         <v>201</v>
@@ -8891,7 +8894,7 @@
         <v>95</v>
       </c>
       <c r="F27" s="183" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G27" s="183"/>
       <c r="H27" s="183"/>
@@ -8901,15 +8904,15 @@
       </c>
       <c r="K27" s="185"/>
       <c r="L27" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="73" customFormat="1" ht="36">
       <c r="A28" s="152" t="s">
+        <v>909</v>
+      </c>
+      <c r="B28" s="183" t="s">
         <v>911</v>
-      </c>
-      <c r="B28" s="183" t="s">
-        <v>913</v>
       </c>
       <c r="C28" s="183" t="s">
         <v>169</v>
@@ -8921,11 +8924,11 @@
         <v>95</v>
       </c>
       <c r="F28" s="183" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G28" s="183"/>
       <c r="H28" s="183" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I28" s="108"/>
       <c r="J28" s="185" t="s">
@@ -8933,7 +8936,7 @@
       </c>
       <c r="K28" s="185"/>
       <c r="L28" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="73" customFormat="1" ht="48">
@@ -8967,7 +8970,7 @@
       </c>
       <c r="K29" s="80"/>
       <c r="L29" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="73" customFormat="1" ht="24" customHeight="1">
@@ -8991,7 +8994,7 @@
       </c>
       <c r="G30" s="82"/>
       <c r="H30" s="82" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I30" s="108"/>
       <c r="J30" s="80" t="s">
@@ -8999,7 +9002,7 @@
       </c>
       <c r="K30" s="80"/>
       <c r="L30" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="44.25" customHeight="1">
@@ -9016,7 +9019,7 @@
         <v>168</v>
       </c>
       <c r="E31" s="84" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F31" s="82" t="s">
         <v>532</v>
@@ -9031,7 +9034,7 @@
       </c>
       <c r="K31" s="80"/>
       <c r="L31" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="73" customFormat="1">
@@ -9099,7 +9102,7 @@
       </c>
       <c r="K33" s="80"/>
       <c r="L33" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="36">
@@ -9129,7 +9132,7 @@
       </c>
       <c r="K34" s="80"/>
       <c r="L34" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -9157,7 +9160,7 @@
       </c>
       <c r="K35" s="80"/>
       <c r="L35" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -9185,12 +9188,12 @@
       </c>
       <c r="K36" s="80"/>
       <c r="L36" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="152" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B37" s="174" t="s">
         <v>5</v>
@@ -9202,7 +9205,7 @@
         <v>40</v>
       </c>
       <c r="E37" s="174" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F37" s="174">
         <v>409</v>
@@ -9215,7 +9218,7 @@
       </c>
       <c r="K37" s="185"/>
       <c r="L37" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -9245,7 +9248,7 @@
       </c>
       <c r="K38" s="80"/>
       <c r="L38" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -9273,7 +9276,7 @@
       </c>
       <c r="K39" s="80"/>
       <c r="L39" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -9301,7 +9304,7 @@
       </c>
       <c r="K40" s="80"/>
       <c r="L40" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -9329,7 +9332,7 @@
       </c>
       <c r="K41" s="80"/>
       <c r="L41" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -9357,7 +9360,7 @@
       </c>
       <c r="K42" s="80"/>
       <c r="L42" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -9385,7 +9388,7 @@
       </c>
       <c r="K43" s="80"/>
       <c r="L43" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="24">
@@ -9415,7 +9418,7 @@
       </c>
       <c r="K44" s="80"/>
       <c r="L44" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -9443,7 +9446,7 @@
       </c>
       <c r="K45" s="80"/>
       <c r="L45" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="36">
@@ -9473,7 +9476,7 @@
       </c>
       <c r="K46" s="80"/>
       <c r="L46" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -9501,7 +9504,7 @@
       </c>
       <c r="K47" s="80"/>
       <c r="L47" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -9529,7 +9532,7 @@
       </c>
       <c r="K48" s="80"/>
       <c r="L48" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -9546,7 +9549,7 @@
         <v>530</v>
       </c>
       <c r="E49" s="83" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F49" s="83"/>
       <c r="G49" s="7"/>
@@ -9557,7 +9560,7 @@
       </c>
       <c r="K49" s="80"/>
       <c r="L49" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="48">
@@ -9589,7 +9592,7 @@
       </c>
       <c r="K50" s="80"/>
       <c r="L50" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -9617,7 +9620,7 @@
       </c>
       <c r="K51" s="80"/>
       <c r="L51" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="24">
@@ -9647,7 +9650,7 @@
       </c>
       <c r="K52" s="80"/>
       <c r="L52" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="24">
@@ -9677,7 +9680,7 @@
       </c>
       <c r="K53" s="80"/>
       <c r="L53" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="36">
@@ -9707,7 +9710,7 @@
       </c>
       <c r="K54" s="80"/>
       <c r="L54" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="24">
@@ -9737,7 +9740,7 @@
       </c>
       <c r="K55" s="80"/>
       <c r="L55" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -9765,7 +9768,7 @@
       </c>
       <c r="K56" s="80"/>
       <c r="L56" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="24">
@@ -9795,7 +9798,7 @@
       </c>
       <c r="K57" s="80"/>
       <c r="L57" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -9823,7 +9826,7 @@
       </c>
       <c r="K58" s="80"/>
       <c r="L58" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="24">
@@ -9853,7 +9856,7 @@
       </c>
       <c r="K59" s="80"/>
       <c r="L59" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -9881,7 +9884,7 @@
       </c>
       <c r="K60" s="80"/>
       <c r="L60" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="24">
@@ -9911,7 +9914,7 @@
       </c>
       <c r="K61" s="80"/>
       <c r="L61" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -9943,7 +9946,7 @@
       </c>
       <c r="K62" s="80"/>
       <c r="L62" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -9973,7 +9976,7 @@
       </c>
       <c r="K63" s="80"/>
       <c r="L63" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -10001,7 +10004,7 @@
       </c>
       <c r="K64" s="80"/>
       <c r="L64" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -10031,7 +10034,7 @@
       </c>
       <c r="K65" s="80"/>
       <c r="L65" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10059,7 +10062,7 @@
       </c>
       <c r="K66" s="80"/>
       <c r="L66" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="24">
@@ -10089,7 +10092,7 @@
       </c>
       <c r="K67" s="80"/>
       <c r="L67" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10117,7 +10120,7 @@
       </c>
       <c r="K68" s="80"/>
       <c r="L68" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10134,7 +10137,7 @@
         <v>530</v>
       </c>
       <c r="E69" s="84" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F69" s="83" t="s">
         <v>532</v>
@@ -10147,7 +10150,7 @@
       </c>
       <c r="K69" s="80"/>
       <c r="L69" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10164,7 +10167,7 @@
         <v>172</v>
       </c>
       <c r="E70" s="84" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F70" s="83" t="s">
         <v>532</v>
@@ -10177,7 +10180,7 @@
       </c>
       <c r="K70" s="80"/>
       <c r="L70" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="24">
@@ -10207,7 +10210,7 @@
       </c>
       <c r="K71" s="80"/>
       <c r="L71" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10235,7 +10238,7 @@
       </c>
       <c r="K72" s="80"/>
       <c r="L72" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -10252,7 +10255,7 @@
         <v>530</v>
       </c>
       <c r="E73" s="153" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F73" s="153" t="s">
         <v>532</v>
@@ -10267,7 +10270,7 @@
       </c>
       <c r="K73" s="80"/>
       <c r="L73" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="24">
@@ -10297,7 +10300,7 @@
       </c>
       <c r="K74" s="80"/>
       <c r="L74" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -10325,7 +10328,7 @@
       </c>
       <c r="K75" s="80"/>
       <c r="L75" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="36">
@@ -10342,7 +10345,7 @@
         <v>530</v>
       </c>
       <c r="E76" s="83" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F76" s="83" t="s">
         <v>532</v>
@@ -10357,7 +10360,7 @@
       </c>
       <c r="K76" s="80"/>
       <c r="L76" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="36">
@@ -10387,7 +10390,7 @@
       </c>
       <c r="K77" s="80"/>
       <c r="L77" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="60">
@@ -10404,7 +10407,7 @@
         <v>543</v>
       </c>
       <c r="E78" s="83" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F78" s="83"/>
       <c r="G78" s="7"/>
@@ -10417,7 +10420,7 @@
       </c>
       <c r="K78" s="80"/>
       <c r="L78" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="24">
@@ -10434,7 +10437,7 @@
         <v>544</v>
       </c>
       <c r="E79" s="83" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F79" s="83"/>
       <c r="G79" s="7"/>
@@ -10445,7 +10448,7 @@
       </c>
       <c r="K79" s="80"/>
       <c r="L79" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="36">
@@ -10462,7 +10465,7 @@
         <v>535</v>
       </c>
       <c r="E80" s="83" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F80" s="83"/>
       <c r="G80" s="7"/>
@@ -10475,7 +10478,7 @@
       </c>
       <c r="K80" s="80"/>
       <c r="L80" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -10492,7 +10495,7 @@
         <v>172</v>
       </c>
       <c r="E81" s="83" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F81" s="83"/>
       <c r="G81" s="7"/>
@@ -10503,7 +10506,7 @@
       </c>
       <c r="K81" s="80"/>
       <c r="L81" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -10531,7 +10534,7 @@
       </c>
       <c r="K82" s="80"/>
       <c r="L82" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="24">
@@ -10561,7 +10564,7 @@
       </c>
       <c r="K83" s="80"/>
       <c r="L83" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="24">
@@ -10591,7 +10594,7 @@
       </c>
       <c r="K84" s="80"/>
       <c r="L84" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="36">
@@ -10621,7 +10624,7 @@
       </c>
       <c r="K85" s="80"/>
       <c r="L85" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="24">
@@ -10651,7 +10654,7 @@
       </c>
       <c r="K86" s="80"/>
       <c r="L86" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -10679,7 +10682,7 @@
       </c>
       <c r="K87" s="80"/>
       <c r="L87" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="24">
@@ -10709,7 +10712,7 @@
       </c>
       <c r="K88" s="80"/>
       <c r="L88" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -10737,7 +10740,7 @@
       </c>
       <c r="K89" s="80"/>
       <c r="L89" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="24">
@@ -10767,7 +10770,7 @@
       </c>
       <c r="K90" s="80"/>
       <c r="L90" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -10795,7 +10798,7 @@
       </c>
       <c r="K91" s="80"/>
       <c r="L91" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="24">
@@ -10825,7 +10828,7 @@
       </c>
       <c r="K92" s="80"/>
       <c r="L92" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -10853,7 +10856,7 @@
       </c>
       <c r="K93" s="80"/>
       <c r="L93" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -10881,7 +10884,7 @@
       </c>
       <c r="K94" s="80"/>
       <c r="L94" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -10909,7 +10912,7 @@
       </c>
       <c r="K95" s="80"/>
       <c r="L95" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -10937,7 +10940,7 @@
       </c>
       <c r="K96" s="80"/>
       <c r="L96" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -10967,7 +10970,7 @@
       </c>
       <c r="K97" s="80"/>
       <c r="L97" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -10995,7 +10998,7 @@
       </c>
       <c r="K98" s="80"/>
       <c r="L98" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -11023,7 +11026,7 @@
       </c>
       <c r="K99" s="80"/>
       <c r="L99" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="24">
@@ -11053,7 +11056,7 @@
       </c>
       <c r="K100" s="80"/>
       <c r="L100" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -11081,7 +11084,7 @@
       </c>
       <c r="K101" s="80"/>
       <c r="L101" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -11178,15 +11181,15 @@
         <v>169</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F2" s="88"/>
       <c r="G2" s="14"/>
       <c r="H2" s="131" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14" t="s">
@@ -11194,12 +11197,12 @@
       </c>
       <c r="K2" s="185"/>
       <c r="L2" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="36">
       <c r="A3" s="50" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>38</v>
@@ -11208,13 +11211,13 @@
         <v>169</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="88"/>
       <c r="G3" s="14"/>
       <c r="H3" s="131" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14" t="s">
@@ -11222,7 +11225,7 @@
       </c>
       <c r="K3" s="185"/>
       <c r="L3" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
   </sheetData>
@@ -11337,12 +11340,12 @@
       </c>
       <c r="K3" s="80"/>
       <c r="L3" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="23" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>203</v>
@@ -11367,7 +11370,7 @@
       </c>
       <c r="K4" s="80"/>
       <c r="L4" s="80" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="81" customFormat="1">
@@ -11435,7 +11438,7 @@
       </c>
       <c r="K7" s="80"/>
       <c r="L7" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11463,7 +11466,7 @@
       </c>
       <c r="K8" s="80"/>
       <c r="L8" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -11491,7 +11494,7 @@
       </c>
       <c r="K9" s="80"/>
       <c r="L9" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="15" customFormat="1">
@@ -11541,7 +11544,7 @@
       </c>
       <c r="K11" s="80"/>
       <c r="L11" s="80" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="81" customFormat="1">
@@ -11564,7 +11567,7 @@
     </row>
     <row r="13" spans="1:12" s="81" customFormat="1">
       <c r="A13" s="23" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B13" s="78"/>
       <c r="C13" s="183"/>
@@ -11582,7 +11585,7 @@
     </row>
     <row r="14" spans="1:12" s="81" customFormat="1">
       <c r="A14" s="23" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B14" s="78"/>
       <c r="C14" s="183"/>
@@ -11600,7 +11603,7 @@
     </row>
     <row r="15" spans="1:12" s="81" customFormat="1">
       <c r="A15" s="23" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B15" s="78"/>
       <c r="C15" s="183"/>
@@ -11693,7 +11696,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="49" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B2" s="86" t="s">
         <v>6</v>
@@ -11718,7 +11721,7 @@
       </c>
       <c r="K2" s="80"/>
       <c r="L2" s="80" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -11788,7 +11791,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="30" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -11804,7 +11807,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="30" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -11820,7 +11823,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -11836,7 +11839,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -11852,7 +11855,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -11868,7 +11871,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -11891,7 +11894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D120" sqref="D120"/>
     </sheetView>
@@ -11978,7 +11981,7 @@
       </c>
       <c r="K2" s="185"/>
       <c r="L2" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -12008,7 +12011,7 @@
       </c>
       <c r="K3" s="185"/>
       <c r="L3" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="24">
@@ -12022,7 +12025,7 @@
         <v>169</v>
       </c>
       <c r="D4" s="183" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E4" s="156" t="s">
         <v>297</v>
@@ -12038,7 +12041,7 @@
       </c>
       <c r="K4" s="185"/>
       <c r="L4" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -12070,7 +12073,7 @@
       </c>
       <c r="K5" s="185"/>
       <c r="L5" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24">
@@ -12102,7 +12105,7 @@
       </c>
       <c r="K6" s="185"/>
       <c r="L6" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="24">
@@ -12161,7 +12164,7 @@
       </c>
       <c r="K8" s="185"/>
       <c r="L8" s="185" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12191,7 +12194,7 @@
       </c>
       <c r="K9" s="185"/>
       <c r="L9" s="185" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12221,7 +12224,7 @@
       </c>
       <c r="K10" s="185"/>
       <c r="L10" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="24">
@@ -12249,7 +12252,7 @@
       </c>
       <c r="K11" s="185"/>
       <c r="L11" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12297,7 +12300,7 @@
       </c>
       <c r="K13" s="185"/>
       <c r="L13" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -12329,7 +12332,7 @@
       </c>
       <c r="K14" s="126"/>
       <c r="L14" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -12359,7 +12362,7 @@
       </c>
       <c r="K15" s="185"/>
       <c r="L15" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12389,7 +12392,7 @@
       </c>
       <c r="K16" s="185"/>
       <c r="L16" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="24">
@@ -12421,7 +12424,7 @@
       </c>
       <c r="K17" s="126"/>
       <c r="L17" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12451,7 +12454,7 @@
       </c>
       <c r="K18" s="185"/>
       <c r="L18" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12481,7 +12484,7 @@
       </c>
       <c r="K19" s="185"/>
       <c r="L19" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -12511,7 +12514,7 @@
       </c>
       <c r="K20" s="185"/>
       <c r="L20" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12543,7 +12546,7 @@
       </c>
       <c r="K21" s="185"/>
       <c r="L21" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12575,7 +12578,7 @@
       </c>
       <c r="K22" s="185"/>
       <c r="L22" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="36">
@@ -12607,7 +12610,7 @@
       </c>
       <c r="K23" s="185"/>
       <c r="L23" s="185" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="24">
@@ -12665,7 +12668,7 @@
       </c>
       <c r="K25" s="185"/>
       <c r="L25" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12695,12 +12698,12 @@
       </c>
       <c r="K26" s="185"/>
       <c r="L26" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="152" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B27" s="185" t="s">
         <v>5</v>
@@ -12725,7 +12728,7 @@
       </c>
       <c r="K27" s="185"/>
       <c r="L27" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1">
@@ -12755,7 +12758,7 @@
       </c>
       <c r="K28" s="185"/>
       <c r="L28" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12787,7 +12790,7 @@
       </c>
       <c r="K29" s="185"/>
       <c r="L29" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -12819,7 +12822,7 @@
       </c>
       <c r="K30" s="185"/>
       <c r="L30" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -12933,7 +12936,7 @@
       </c>
       <c r="K34" s="185"/>
       <c r="L34" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -12965,7 +12968,7 @@
       </c>
       <c r="K35" s="185"/>
       <c r="L35" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -12995,7 +12998,7 @@
       </c>
       <c r="K36" s="185"/>
       <c r="L36" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -13025,7 +13028,7 @@
       </c>
       <c r="K37" s="185"/>
       <c r="L37" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="24">
@@ -13057,7 +13060,7 @@
       </c>
       <c r="K38" s="185"/>
       <c r="L38" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -13087,7 +13090,7 @@
       </c>
       <c r="K39" s="185"/>
       <c r="L39" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -13117,7 +13120,7 @@
       </c>
       <c r="K40" s="185"/>
       <c r="L40" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -13147,7 +13150,7 @@
       </c>
       <c r="K41" s="185"/>
       <c r="L41" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -13179,7 +13182,7 @@
       </c>
       <c r="K42" s="185"/>
       <c r="L42" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -13211,7 +13214,7 @@
       </c>
       <c r="K43" s="185"/>
       <c r="L43" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="36">
@@ -13243,7 +13246,7 @@
       </c>
       <c r="K44" s="185"/>
       <c r="L44" s="185" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="24">
@@ -13301,7 +13304,7 @@
       </c>
       <c r="K46" s="185"/>
       <c r="L46" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -13331,12 +13334,12 @@
       </c>
       <c r="K47" s="185"/>
       <c r="L47" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="152" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B48" s="185" t="s">
         <v>5</v>
@@ -13361,7 +13364,7 @@
       </c>
       <c r="K48" s="185"/>
       <c r="L48" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="12" customHeight="1">
@@ -13391,7 +13394,7 @@
       </c>
       <c r="K49" s="185"/>
       <c r="L49" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -13423,7 +13426,7 @@
       </c>
       <c r="K50" s="185"/>
       <c r="L50" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -13455,7 +13458,7 @@
       </c>
       <c r="K51" s="185"/>
       <c r="L51" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -13567,7 +13570,7 @@
       </c>
       <c r="K55" s="185"/>
       <c r="L55" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -13637,7 +13640,7 @@
       </c>
       <c r="K57" s="185"/>
       <c r="L57" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="48">
@@ -13667,7 +13670,7 @@
       </c>
       <c r="K58" s="185"/>
       <c r="L58" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="48">
@@ -13697,7 +13700,7 @@
       </c>
       <c r="K59" s="185"/>
       <c r="L59" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="48">
@@ -13727,7 +13730,7 @@
       </c>
       <c r="K60" s="185"/>
       <c r="L60" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="48">
@@ -13757,7 +13760,7 @@
       </c>
       <c r="K61" s="185"/>
       <c r="L61" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="48">
@@ -13787,7 +13790,7 @@
       </c>
       <c r="K62" s="185"/>
       <c r="L62" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="48">
@@ -13817,7 +13820,7 @@
       </c>
       <c r="K63" s="185"/>
       <c r="L63" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="48">
@@ -13847,7 +13850,7 @@
       </c>
       <c r="K64" s="185"/>
       <c r="L64" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="48">
@@ -13877,7 +13880,7 @@
       </c>
       <c r="K65" s="185"/>
       <c r="L65" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="36">
@@ -13894,7 +13897,7 @@
         <v>0.71</v>
       </c>
       <c r="E66" s="183" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F66" s="185">
         <v>150</v>
@@ -13909,7 +13912,7 @@
       </c>
       <c r="K66" s="185"/>
       <c r="L66" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="36">
@@ -13941,7 +13944,7 @@
       </c>
       <c r="K67" s="185"/>
       <c r="L67" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="48">
@@ -13971,7 +13974,7 @@
       </c>
       <c r="K68" s="185"/>
       <c r="L68" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="48">
@@ -14001,7 +14004,7 @@
       </c>
       <c r="K69" s="185"/>
       <c r="L69" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="48">
@@ -14031,7 +14034,7 @@
       </c>
       <c r="K70" s="185"/>
       <c r="L70" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="48">
@@ -14061,7 +14064,7 @@
       </c>
       <c r="K71" s="185"/>
       <c r="L71" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="48">
@@ -14091,7 +14094,7 @@
       </c>
       <c r="K72" s="185"/>
       <c r="L72" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="48">
@@ -14121,7 +14124,7 @@
       </c>
       <c r="K73" s="185"/>
       <c r="L73" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="48">
@@ -14151,7 +14154,7 @@
       </c>
       <c r="K74" s="185"/>
       <c r="L74" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="48">
@@ -14181,7 +14184,7 @@
       </c>
       <c r="K75" s="185"/>
       <c r="L75" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="36">
@@ -14198,7 +14201,7 @@
         <v>0.71</v>
       </c>
       <c r="E76" s="183" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F76" s="185"/>
       <c r="G76" s="189" t="s">
@@ -14211,7 +14214,7 @@
       </c>
       <c r="K76" s="185"/>
       <c r="L76" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -14243,7 +14246,7 @@
       </c>
       <c r="K77" s="185"/>
       <c r="L77" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -14275,7 +14278,7 @@
       </c>
       <c r="K78" s="185"/>
       <c r="L78" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -14307,7 +14310,7 @@
       </c>
       <c r="K79" s="185"/>
       <c r="L79" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -14339,7 +14342,7 @@
       </c>
       <c r="K80" s="185"/>
       <c r="L80" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -14371,7 +14374,7 @@
       </c>
       <c r="K81" s="185"/>
       <c r="L81" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -14402,7 +14405,7 @@
       </c>
       <c r="K82" s="185"/>
       <c r="L82" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -14434,7 +14437,7 @@
       </c>
       <c r="K83" s="185"/>
       <c r="L83" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -14464,7 +14467,7 @@
       </c>
       <c r="K84" s="185"/>
       <c r="L84" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -14496,7 +14499,7 @@
       </c>
       <c r="K85" s="185"/>
       <c r="L85" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -14528,7 +14531,7 @@
       </c>
       <c r="K86" s="185"/>
       <c r="L86" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -14560,7 +14563,7 @@
       </c>
       <c r="K87" s="185"/>
       <c r="L87" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -14592,7 +14595,7 @@
       </c>
       <c r="K88" s="185"/>
       <c r="L88" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -14624,7 +14627,7 @@
       </c>
       <c r="K89" s="185"/>
       <c r="L89" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -14656,7 +14659,7 @@
       </c>
       <c r="K90" s="185"/>
       <c r="L90" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -14688,7 +14691,7 @@
       </c>
       <c r="K91" s="185"/>
       <c r="L91" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -14718,7 +14721,7 @@
       </c>
       <c r="K92" s="185"/>
       <c r="L92" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -14750,7 +14753,7 @@
       </c>
       <c r="K93" s="185"/>
       <c r="L93" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -14780,7 +14783,7 @@
       </c>
       <c r="K94" s="185"/>
       <c r="L94" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -14812,7 +14815,7 @@
       </c>
       <c r="K95" s="185"/>
       <c r="L95" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -14842,12 +14845,12 @@
       </c>
       <c r="K96" s="185"/>
       <c r="L96" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="24">
       <c r="A97" s="152" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B97" s="184" t="s">
         <v>44</v>
@@ -14875,7 +14878,7 @@
       </c>
       <c r="K97" s="185"/>
       <c r="L97" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="24">
@@ -14907,7 +14910,7 @@
       </c>
       <c r="K98" s="185"/>
       <c r="L98" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="24">
@@ -14941,7 +14944,7 @@
       </c>
       <c r="K99" s="185"/>
       <c r="L99" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="24">
@@ -14973,7 +14976,7 @@
       </c>
       <c r="K100" s="185"/>
       <c r="L100" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="24">
@@ -15005,7 +15008,7 @@
       </c>
       <c r="K101" s="185"/>
       <c r="L101" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="36">
@@ -15037,7 +15040,7 @@
       </c>
       <c r="K102" s="185"/>
       <c r="L102" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="24">
@@ -15060,7 +15063,7 @@
         <v>43</v>
       </c>
       <c r="G103" s="184" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H103" s="185"/>
       <c r="I103" s="185"/>
@@ -15069,7 +15072,7 @@
       </c>
       <c r="K103" s="185"/>
       <c r="L103" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="24">
@@ -15101,7 +15104,7 @@
       </c>
       <c r="K104" s="185"/>
       <c r="L104" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="24">
@@ -15137,7 +15140,7 @@
       </c>
       <c r="K105" s="185"/>
       <c r="L105" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="24">
@@ -15169,7 +15172,7 @@
       </c>
       <c r="K106" s="185"/>
       <c r="L106" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -15199,7 +15202,7 @@
       </c>
       <c r="K107" s="185"/>
       <c r="L107" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -15242,7 +15245,7 @@
     </row>
     <row r="109" spans="1:12" ht="36">
       <c r="A109" s="152" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B109" s="184" t="s">
         <v>58</v>
@@ -15269,12 +15272,12 @@
       </c>
       <c r="K109" s="185"/>
       <c r="L109" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="24">
       <c r="A110" s="152" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B110" s="184" t="s">
         <v>58</v>
@@ -15308,7 +15311,7 @@
     </row>
     <row r="111" spans="1:12" ht="24">
       <c r="A111" s="152" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B111" s="183"/>
       <c r="C111" s="183" t="s">
@@ -15331,12 +15334,12 @@
       </c>
       <c r="K111" s="185"/>
       <c r="L111" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="36">
       <c r="A112" s="152" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B112" s="184" t="s">
         <v>58</v>
@@ -15365,12 +15368,12 @@
       </c>
       <c r="K112" s="185"/>
       <c r="L112" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="152" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B113" s="183" t="s">
         <v>323</v>
@@ -15397,12 +15400,12 @@
       </c>
       <c r="K113" s="185"/>
       <c r="L113" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="152" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B114" s="183" t="s">
         <v>323</v>
@@ -15429,12 +15432,12 @@
       </c>
       <c r="K114" s="185"/>
       <c r="L114" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="152" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B115" s="183" t="s">
         <v>323</v>
@@ -15461,12 +15464,12 @@
       </c>
       <c r="K115" s="185"/>
       <c r="L115" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="36">
       <c r="A116" s="152" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B116" s="184" t="s">
         <v>58</v>
@@ -15493,12 +15496,12 @@
       </c>
       <c r="K116" s="185"/>
       <c r="L116" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="24">
       <c r="A117" s="152" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B117" s="183" t="s">
         <v>323</v>
@@ -15507,10 +15510,10 @@
         <v>169</v>
       </c>
       <c r="D117" s="183" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E117" s="174" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F117" s="191">
         <v>160</v>
@@ -15525,12 +15528,12 @@
       </c>
       <c r="K117" s="185"/>
       <c r="L117" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="152" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B118" s="183" t="s">
         <v>323</v>
@@ -15542,7 +15545,7 @@
         <v>10</v>
       </c>
       <c r="E118" s="174" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F118" s="191">
         <v>160</v>
@@ -15557,12 +15560,12 @@
       </c>
       <c r="K118" s="185"/>
       <c r="L118" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="24">
       <c r="A119" s="152" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B119" s="183" t="s">
         <v>323</v>
@@ -15571,10 +15574,10 @@
         <v>169</v>
       </c>
       <c r="D119" s="183" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E119" s="174" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F119" s="191">
         <v>160</v>
@@ -15589,12 +15592,12 @@
       </c>
       <c r="K119" s="185"/>
       <c r="L119" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="36">
       <c r="A120" s="152" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B120" s="184" t="s">
         <v>58</v>
@@ -15621,12 +15624,12 @@
       </c>
       <c r="K120" s="185"/>
       <c r="L120" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="24">
       <c r="A121" s="152" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B121" s="183" t="s">
         <v>34</v>
@@ -15653,12 +15656,12 @@
       </c>
       <c r="K121" s="185"/>
       <c r="L121" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="24">
       <c r="A122" s="152" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B122" s="183" t="s">
         <v>34</v>
@@ -15685,12 +15688,12 @@
       </c>
       <c r="K122" s="185"/>
       <c r="L122" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="152" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B123" s="183" t="s">
         <v>34</v>
@@ -15717,12 +15720,12 @@
       </c>
       <c r="K123" s="185"/>
       <c r="L123" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="48">
       <c r="A124" s="152" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B124" s="184" t="s">
         <v>58</v>
@@ -15749,12 +15752,12 @@
       </c>
       <c r="K124" s="185"/>
       <c r="L124" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="24">
       <c r="A125" s="152" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B125" s="183" t="s">
         <v>323</v>
@@ -15781,12 +15784,12 @@
       </c>
       <c r="K125" s="185"/>
       <c r="L125" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="152" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B126" s="183" t="s">
         <v>323</v>
@@ -15813,12 +15816,12 @@
       </c>
       <c r="K126" s="185"/>
       <c r="L126" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="152" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B127" s="183"/>
       <c r="C127" s="183" t="s">
@@ -15840,12 +15843,12 @@
       </c>
       <c r="K127" s="185"/>
       <c r="L127" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="152" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B128" s="183" t="s">
         <v>323</v>
@@ -15872,12 +15875,12 @@
       </c>
       <c r="K128" s="185"/>
       <c r="L128" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="24">
       <c r="A129" s="152" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B129" s="183"/>
       <c r="C129" s="183" t="s">
@@ -15901,12 +15904,12 @@
       </c>
       <c r="K129" s="185"/>
       <c r="L129" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="36">
       <c r="A130" s="152" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B130" s="184" t="s">
         <v>58</v>
@@ -15931,12 +15934,12 @@
       </c>
       <c r="K130" s="185"/>
       <c r="L130" s="185" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="36">
       <c r="A131" s="152" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B131" s="184" t="s">
         <v>58</v>
@@ -15963,12 +15966,12 @@
       </c>
       <c r="K131" s="185"/>
       <c r="L131" s="185" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="152" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B132" s="183" t="s">
         <v>323</v>
@@ -15995,12 +15998,12 @@
       </c>
       <c r="K132" s="185"/>
       <c r="L132" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="152" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B133" s="183" t="s">
         <v>323</v>
@@ -16027,12 +16030,12 @@
       </c>
       <c r="K133" s="185"/>
       <c r="L133" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="152" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B134" s="183"/>
       <c r="C134" s="183" t="s">
@@ -16054,12 +16057,12 @@
       </c>
       <c r="K134" s="185"/>
       <c r="L134" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="152" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B135" s="183" t="s">
         <v>323</v>
@@ -16086,12 +16089,12 @@
       </c>
       <c r="K135" s="185"/>
       <c r="L135" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="36">
       <c r="A136" s="152" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B136" s="184" t="s">
         <v>58</v>
@@ -16118,12 +16121,12 @@
       </c>
       <c r="K136" s="185"/>
       <c r="L136" s="185" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="152" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B137" s="183" t="s">
         <v>323</v>
@@ -16150,12 +16153,12 @@
       </c>
       <c r="K137" s="185"/>
       <c r="L137" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="152" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B138" s="183" t="s">
         <v>323</v>
@@ -16182,12 +16185,12 @@
       </c>
       <c r="K138" s="185"/>
       <c r="L138" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="152" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B139" s="183"/>
       <c r="C139" s="183" t="s">
@@ -16209,12 +16212,12 @@
       </c>
       <c r="K139" s="185"/>
       <c r="L139" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="152" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B140" s="183" t="s">
         <v>323</v>
@@ -16241,12 +16244,12 @@
       </c>
       <c r="K140" s="185"/>
       <c r="L140" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="36">
       <c r="A141" s="152" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B141" s="184" t="s">
         <v>58</v>
@@ -16273,12 +16276,12 @@
       </c>
       <c r="K141" s="185"/>
       <c r="L141" s="185" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="152" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B142" s="183" t="s">
         <v>34</v>
@@ -16303,12 +16306,12 @@
       </c>
       <c r="K142" s="185"/>
       <c r="L142" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="152" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B143" s="183" t="s">
         <v>34</v>
@@ -16333,12 +16336,12 @@
       </c>
       <c r="K143" s="185"/>
       <c r="L143" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="152" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B144" s="183" t="s">
         <v>34</v>
@@ -16365,7 +16368,7 @@
       </c>
       <c r="K144" s="185"/>
       <c r="L144" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="145" spans="1:12" s="81" customFormat="1" ht="15">
@@ -19305,7 +19308,7 @@
     </row>
     <row r="2" spans="1:24" ht="48">
       <c r="A2" s="17" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>5</v>
@@ -19314,15 +19317,15 @@
         <v>169</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E2" s="183" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="65" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I2" s="38"/>
       <c r="J2" s="106" t="s">
@@ -19347,7 +19350,7 @@
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1">
       <c r="A3" s="152" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B3" s="174" t="s">
         <v>5</v>
@@ -19362,10 +19365,10 @@
         <v>95</v>
       </c>
       <c r="F3" s="191" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G3" s="191" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H3" s="184"/>
       <c r="I3" s="38"/>
@@ -19409,7 +19412,7 @@
     </row>
     <row r="5" spans="1:24" s="3" customFormat="1">
       <c r="A5" s="23" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B5" s="174"/>
       <c r="C5" s="155"/>
@@ -19429,7 +19432,7 @@
     </row>
     <row r="6" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="68" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B6" s="64" t="s">
         <v>24</v>
@@ -19466,7 +19469,7 @@
         <v>169</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>246</v>
@@ -19489,7 +19492,7 @@
     </row>
     <row r="8" spans="1:24" s="3" customFormat="1">
       <c r="A8" s="68" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B8" s="64" t="s">
         <v>24</v>
@@ -19623,7 +19626,7 @@
     </row>
     <row r="12" spans="1:24" s="81" customFormat="1">
       <c r="A12" s="23" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B12" s="78"/>
       <c r="C12" s="78"/>
@@ -21642,7 +21645,7 @@
         <v>74</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="J1" s="72" t="s">
         <v>384</v>
@@ -21681,7 +21684,7 @@
       </c>
       <c r="K2" s="185"/>
       <c r="L2" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="73" customFormat="1" ht="18.600000000000001" customHeight="1">
@@ -21716,7 +21719,7 @@
       </c>
       <c r="K3" s="185"/>
       <c r="L3" s="185" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="73" customFormat="1">
@@ -21742,14 +21745,14 @@
         <v>114</v>
       </c>
       <c r="I4" s="183" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="J4" s="102" t="s">
         <v>623</v>
       </c>
       <c r="K4" s="185"/>
       <c r="L4" s="185" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="73" customFormat="1" ht="24">
@@ -21781,7 +21784,7 @@
       </c>
       <c r="K5" s="185"/>
       <c r="L5" s="185" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="73" customFormat="1">
@@ -21813,7 +21816,7 @@
       </c>
       <c r="K6" s="185"/>
       <c r="L6" s="185" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="81" customFormat="1">
@@ -21843,7 +21846,7 @@
       </c>
       <c r="K7" s="185"/>
       <c r="L7" s="185" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="81" customFormat="1">
@@ -21875,12 +21878,12 @@
       </c>
       <c r="K8" s="185"/>
       <c r="L8" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="81" customFormat="1">
       <c r="A9" s="29" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B9" s="174" t="s">
         <v>20</v>
@@ -21889,7 +21892,7 @@
         <v>169</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>589</v>
@@ -21903,12 +21906,12 @@
       </c>
       <c r="K9" s="185"/>
       <c r="L9" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="81" customFormat="1">
       <c r="A10" s="29" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B10" s="174" t="s">
         <v>20</v>
@@ -21927,12 +21930,12 @@
       </c>
       <c r="K10" s="185"/>
       <c r="L10" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="81" customFormat="1">
       <c r="A11" s="29" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B11" s="174" t="s">
         <v>20</v>
@@ -21951,12 +21954,12 @@
       </c>
       <c r="K11" s="185"/>
       <c r="L11" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="81" customFormat="1">
       <c r="A12" s="29" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B12" s="174" t="s">
         <v>20</v>
@@ -21975,12 +21978,12 @@
       </c>
       <c r="K12" s="185"/>
       <c r="L12" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="81" customFormat="1">
       <c r="A13" s="29" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B13" s="174" t="s">
         <v>457</v>
@@ -21999,12 +22002,12 @@
       </c>
       <c r="K13" s="185"/>
       <c r="L13" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="81" customFormat="1">
       <c r="A14" s="29" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B14" s="174" t="s">
         <v>763</v>
@@ -22023,12 +22026,12 @@
       </c>
       <c r="K14" s="185"/>
       <c r="L14" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="81" customFormat="1">
       <c r="A15" s="29" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B15" s="174" t="s">
         <v>457</v>
@@ -22047,12 +22050,12 @@
       </c>
       <c r="K15" s="185"/>
       <c r="L15" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="81" customFormat="1">
       <c r="A16" s="29" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B16" s="174" t="s">
         <v>763</v>
@@ -22071,12 +22074,12 @@
       </c>
       <c r="K16" s="185"/>
       <c r="L16" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="81" customFormat="1">
       <c r="A17" s="29" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B17" s="174" t="s">
         <v>457</v>
@@ -22095,12 +22098,12 @@
       </c>
       <c r="K17" s="185"/>
       <c r="L17" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="81" customFormat="1">
       <c r="A18" s="29" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B18" s="174" t="s">
         <v>763</v>
@@ -22119,12 +22122,12 @@
       </c>
       <c r="K18" s="185"/>
       <c r="L18" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="81" customFormat="1">
       <c r="A19" s="29" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B19" s="174" t="s">
         <v>376</v>
@@ -22143,12 +22146,12 @@
       </c>
       <c r="K19" s="185"/>
       <c r="L19" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="81" customFormat="1">
       <c r="A20" s="29" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B20" s="174" t="s">
         <v>12</v>
@@ -22167,12 +22170,12 @@
       </c>
       <c r="K20" s="185"/>
       <c r="L20" s="185" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="135" customFormat="1" ht="21" customHeight="1">
       <c r="A21" s="59" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B21" s="66" t="s">
         <v>1</v>
@@ -22196,7 +22199,7 @@
         <v>74</v>
       </c>
       <c r="I21" s="66" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="J21" s="66" t="s">
         <v>384</v>
@@ -22210,7 +22213,7 @@
     </row>
     <row r="22" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A22" s="141" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B22" s="103" t="s">
         <v>7</v>
@@ -22222,10 +22225,10 @@
         <v>2127.6</v>
       </c>
       <c r="E22" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F22" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G22" s="158"/>
       <c r="H22" s="165" t="s">
@@ -22239,12 +22242,12 @@
       </c>
       <c r="K22" s="103"/>
       <c r="L22" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A23" s="141" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B23" s="103" t="s">
         <v>7</v>
@@ -22256,10 +22259,10 @@
         <v>267.92</v>
       </c>
       <c r="E23" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F23" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G23" s="158"/>
       <c r="H23" s="165" t="s">
@@ -22273,12 +22276,12 @@
       </c>
       <c r="K23" s="103"/>
       <c r="L23" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A24" s="141" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B24" s="103" t="s">
         <v>7</v>
@@ -22290,10 +22293,10 @@
         <v>808</v>
       </c>
       <c r="E24" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F24" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G24" s="158"/>
       <c r="H24" s="165" t="s">
@@ -22307,12 +22310,12 @@
       </c>
       <c r="K24" s="103"/>
       <c r="L24" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A25" s="141" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B25" s="103" t="s">
         <v>7</v>
@@ -22324,10 +22327,10 @@
         <v>2795.68</v>
       </c>
       <c r="E25" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F25" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G25" s="158"/>
       <c r="H25" s="165" t="s">
@@ -22341,12 +22344,12 @@
       </c>
       <c r="K25" s="103"/>
       <c r="L25" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A26" s="141" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B26" s="103" t="s">
         <v>7</v>
@@ -22358,10 +22361,10 @@
         <v>234.9</v>
       </c>
       <c r="E26" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F26" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G26" s="158"/>
       <c r="H26" s="165" t="s">
@@ -22375,12 +22378,12 @@
       </c>
       <c r="K26" s="103"/>
       <c r="L26" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A27" s="141" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B27" s="103" t="s">
         <v>7</v>
@@ -22392,10 +22395,10 @@
         <v>899</v>
       </c>
       <c r="E27" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F27" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G27" s="158"/>
       <c r="H27" s="165" t="s">
@@ -22409,12 +22412,12 @@
       </c>
       <c r="K27" s="103"/>
       <c r="L27" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A28" s="141" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B28" s="103" t="s">
         <v>7</v>
@@ -22426,10 +22429,10 @@
         <v>287.64</v>
       </c>
       <c r="E28" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F28" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G28" s="158"/>
       <c r="H28" s="165" t="s">
@@ -22443,12 +22446,12 @@
       </c>
       <c r="K28" s="103"/>
       <c r="L28" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A29" s="141" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B29" s="103" t="s">
         <v>7</v>
@@ -22460,10 +22463,10 @@
         <v>484.5</v>
       </c>
       <c r="E29" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F29" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G29" s="158"/>
       <c r="H29" s="165" t="s">
@@ -22477,12 +22480,12 @@
       </c>
       <c r="K29" s="103"/>
       <c r="L29" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A30" s="141" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B30" s="103" t="s">
         <v>7</v>
@@ -22494,10 +22497,10 @@
         <v>42.314999999999998</v>
       </c>
       <c r="E30" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F30" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G30" s="158"/>
       <c r="H30" s="165" t="s">
@@ -22511,12 +22514,12 @@
       </c>
       <c r="K30" s="103"/>
       <c r="L30" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A31" s="141" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B31" s="103" t="s">
         <v>7</v>
@@ -22528,10 +22531,10 @@
         <v>74.864999999999995</v>
       </c>
       <c r="E31" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F31" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G31" s="158"/>
       <c r="H31" s="165" t="s">
@@ -22545,12 +22548,12 @@
       </c>
       <c r="K31" s="103"/>
       <c r="L31" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A32" s="141" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B32" s="103" t="s">
         <v>7</v>
@@ -22562,10 +22565,10 @@
         <v>42.314999999999998</v>
       </c>
       <c r="E32" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F32" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G32" s="158"/>
       <c r="H32" s="165" t="s">
@@ -22579,12 +22582,12 @@
       </c>
       <c r="K32" s="103"/>
       <c r="L32" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A33" s="141" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B33" s="103" t="s">
         <v>7</v>
@@ -22596,10 +22599,10 @@
         <v>74.864999999999995</v>
       </c>
       <c r="E33" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F33" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G33" s="158"/>
       <c r="H33" s="165" t="s">
@@ -22613,12 +22616,12 @@
       </c>
       <c r="K33" s="103"/>
       <c r="L33" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A34" s="141" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B34" s="103" t="s">
         <v>7</v>
@@ -22630,10 +22633,10 @@
         <v>289.8</v>
       </c>
       <c r="E34" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F34" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G34" s="158"/>
       <c r="H34" s="165" t="s">
@@ -22647,12 +22650,12 @@
       </c>
       <c r="K34" s="103"/>
       <c r="L34" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A35" s="141" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B35" s="103" t="s">
         <v>7</v>
@@ -22664,10 +22667,10 @@
         <v>1031.4000000000001</v>
       </c>
       <c r="E35" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F35" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G35" s="158"/>
       <c r="H35" s="165" t="s">
@@ -22681,12 +22684,12 @@
       </c>
       <c r="K35" s="103"/>
       <c r="L35" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A36" s="141" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B36" s="103" t="s">
         <v>7</v>
@@ -22698,10 +22701,10 @@
         <v>84</v>
       </c>
       <c r="E36" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F36" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G36" s="158"/>
       <c r="H36" s="165" t="s">
@@ -22715,12 +22718,12 @@
       </c>
       <c r="K36" s="103"/>
       <c r="L36" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A37" s="141" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B37" s="103" t="s">
         <v>7</v>
@@ -22732,10 +22735,10 @@
         <v>111.5</v>
       </c>
       <c r="E37" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F37" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G37" s="158"/>
       <c r="H37" s="165" t="s">
@@ -22749,12 +22752,12 @@
       </c>
       <c r="K37" s="103"/>
       <c r="L37" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A38" s="141" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B38" s="103" t="s">
         <v>7</v>
@@ -22766,10 +22769,10 @@
         <v>84</v>
       </c>
       <c r="E38" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F38" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G38" s="158"/>
       <c r="H38" s="165" t="s">
@@ -22783,12 +22786,12 @@
       </c>
       <c r="K38" s="103"/>
       <c r="L38" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A39" s="141" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B39" s="103" t="s">
         <v>7</v>
@@ -22800,10 +22803,10 @@
         <v>111.5</v>
       </c>
       <c r="E39" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F39" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G39" s="158"/>
       <c r="H39" s="165" t="s">
@@ -22817,12 +22820,12 @@
       </c>
       <c r="K39" s="103"/>
       <c r="L39" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A40" s="141" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B40" s="103" t="s">
         <v>7</v>
@@ -22834,10 +22837,10 @@
         <v>3422</v>
       </c>
       <c r="E40" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F40" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G40" s="158"/>
       <c r="H40" s="165" t="s">
@@ -22851,12 +22854,12 @@
       </c>
       <c r="K40" s="103"/>
       <c r="L40" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A41" s="141" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B41" s="103" t="s">
         <v>7</v>
@@ -22868,10 +22871,10 @@
         <v>18270</v>
       </c>
       <c r="E41" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F41" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G41" s="158"/>
       <c r="H41" s="165" t="s">
@@ -22885,12 +22888,12 @@
       </c>
       <c r="K41" s="103"/>
       <c r="L41" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="141" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B42" s="156" t="s">
         <v>457</v>
@@ -22913,12 +22916,12 @@
       </c>
       <c r="K42" s="185"/>
       <c r="L42" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="141" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B43" s="156" t="s">
         <v>457</v>
@@ -22943,12 +22946,12 @@
       </c>
       <c r="K43" s="185"/>
       <c r="L43" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A44" s="141" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B44" s="103" t="s">
         <v>7</v>
@@ -22960,10 +22963,10 @@
         <v>105.6</v>
       </c>
       <c r="E44" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F44" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G44" s="158"/>
       <c r="H44" s="165" t="s">
@@ -22977,12 +22980,12 @@
       </c>
       <c r="K44" s="103"/>
       <c r="L44" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A45" s="141" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B45" s="103" t="s">
         <v>7</v>
@@ -22994,10 +22997,10 @@
         <v>150.47999999999999</v>
       </c>
       <c r="E45" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F45" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G45" s="158"/>
       <c r="H45" s="165" t="s">
@@ -23011,12 +23014,12 @@
       </c>
       <c r="K45" s="103"/>
       <c r="L45" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A46" s="141" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B46" s="103" t="s">
         <v>7</v>
@@ -23028,10 +23031,10 @@
         <v>1260.5999999999999</v>
       </c>
       <c r="E46" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F46" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G46" s="158"/>
       <c r="H46" s="165" t="s">
@@ -23045,12 +23048,12 @@
       </c>
       <c r="K46" s="103"/>
       <c r="L46" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A47" s="141" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B47" s="103" t="s">
         <v>7</v>
@@ -23062,10 +23065,10 @@
         <v>960.3</v>
       </c>
       <c r="E47" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F47" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G47" s="158"/>
       <c r="H47" s="165" t="s">
@@ -23079,12 +23082,12 @@
       </c>
       <c r="K47" s="103"/>
       <c r="L47" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A48" s="141" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B48" s="103" t="s">
         <v>7</v>
@@ -23096,10 +23099,10 @@
         <v>31.05</v>
       </c>
       <c r="E48" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F48" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G48" s="158"/>
       <c r="H48" s="165" t="s">
@@ -23113,12 +23116,12 @@
       </c>
       <c r="K48" s="103"/>
       <c r="L48" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="135" customFormat="1" ht="12">
       <c r="A49" s="141" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B49" s="103" t="s">
         <v>7</v>
@@ -23130,10 +23133,10 @@
         <v>86.85</v>
       </c>
       <c r="E49" s="191" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F49" s="190" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G49" s="158"/>
       <c r="H49" s="165" t="s">
@@ -23147,7 +23150,7 @@
       </c>
       <c r="K49" s="103"/>
       <c r="L49" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -23190,7 +23193,7 @@
     </row>
     <row r="51" spans="1:12" ht="24.75">
       <c r="A51" s="141" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B51" s="156" t="s">
         <v>457</v>
@@ -23211,16 +23214,16 @@
       </c>
       <c r="I51" s="14"/>
       <c r="J51" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K51" s="185"/>
       <c r="L51" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="141" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B52" s="156" t="s">
         <v>457</v>
@@ -23239,16 +23242,16 @@
         <v>786</v>
       </c>
       <c r="J52" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K52" s="185"/>
       <c r="L52" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="141" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B53" s="156" t="s">
         <v>457</v>
@@ -23271,16 +23274,16 @@
         <v>114</v>
       </c>
       <c r="J53" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K53" s="185"/>
       <c r="L53" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="141" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B54" s="156" t="s">
         <v>457</v>
@@ -23303,16 +23306,16 @@
         <v>104</v>
       </c>
       <c r="J54" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K54" s="185"/>
       <c r="L54" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="24">
       <c r="A55" s="141" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B55" s="169" t="s">
         <v>457</v>
@@ -23331,16 +23334,16 @@
       </c>
       <c r="I55" s="183"/>
       <c r="J55" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K55" s="185"/>
       <c r="L55" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="141" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B56" s="156" t="s">
         <v>457</v>
@@ -23352,7 +23355,7 @@
         <v>102</v>
       </c>
       <c r="E56" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F56" s="158" t="s">
         <v>590</v>
@@ -23361,16 +23364,16 @@
       <c r="H56" s="90"/>
       <c r="I56" s="14"/>
       <c r="J56" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K56" s="185"/>
       <c r="L56" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="36.75">
       <c r="A57" s="141" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B57" s="169"/>
       <c r="C57" s="170"/>
@@ -23383,16 +23386,16 @@
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K57" s="185"/>
       <c r="L57" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="72.75">
       <c r="A58" s="141" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B58" s="174" t="s">
         <v>579</v>
@@ -23415,16 +23418,16 @@
       </c>
       <c r="I58" s="88"/>
       <c r="J58" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K58" s="185"/>
       <c r="L58" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="141" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B59" s="156" t="s">
         <v>457</v>
@@ -23445,16 +23448,16 @@
       <c r="H59" s="90"/>
       <c r="I59" s="92"/>
       <c r="J59" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K59" s="185"/>
       <c r="L59" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="141" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B60" s="156" t="s">
         <v>457</v>
@@ -23473,16 +23476,16 @@
       </c>
       <c r="I60" s="88"/>
       <c r="J60" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K60" s="185"/>
       <c r="L60" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="24.75">
       <c r="A61" s="141" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B61" s="184" t="s">
         <v>579</v>
@@ -23505,16 +23508,16 @@
       </c>
       <c r="I61" s="88"/>
       <c r="J61" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K61" s="185"/>
       <c r="L61" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="48.75">
       <c r="A62" s="141" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B62" s="156" t="s">
         <v>457</v>
@@ -23537,16 +23540,16 @@
       </c>
       <c r="I62" s="88"/>
       <c r="J62" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K62" s="185"/>
       <c r="L62" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="24">
       <c r="A63" s="141" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B63" s="169"/>
       <c r="C63" s="170"/>
@@ -23559,16 +23562,16 @@
       </c>
       <c r="I63" s="88"/>
       <c r="J63" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K63" s="185"/>
       <c r="L63" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="24">
       <c r="A64" s="141" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B64" s="156" t="s">
         <v>457</v>
@@ -23587,16 +23590,16 @@
       </c>
       <c r="I64" s="88"/>
       <c r="J64" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K64" s="185"/>
       <c r="L64" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="152" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B65" s="156" t="s">
         <v>457</v>
@@ -23617,16 +23620,16 @@
       <c r="H65" s="90"/>
       <c r="I65" s="88"/>
       <c r="J65" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K65" s="185"/>
       <c r="L65" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="141" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B66" s="156" t="s">
         <v>457</v>
@@ -23647,16 +23650,16 @@
       <c r="H66" s="90"/>
       <c r="I66" s="88"/>
       <c r="J66" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K66" s="185"/>
       <c r="L66" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="141" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B67" s="160" t="s">
         <v>457</v>
@@ -23673,16 +23676,16 @@
       </c>
       <c r="I67" s="88"/>
       <c r="J67" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K67" s="185"/>
       <c r="L67" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="36">
       <c r="A68" s="141" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B68" s="184" t="s">
         <v>10</v>
@@ -23703,16 +23706,16 @@
       </c>
       <c r="I68" s="88"/>
       <c r="J68" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K68" s="185"/>
       <c r="L68" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="24.75">
       <c r="A69" s="141" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B69" s="156" t="s">
         <v>457</v>
@@ -23731,16 +23734,16 @@
       </c>
       <c r="I69" s="88"/>
       <c r="J69" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K69" s="185"/>
       <c r="L69" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="141" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B70" s="156" t="s">
         <v>457</v>
@@ -23759,16 +23762,16 @@
       </c>
       <c r="I70" s="88"/>
       <c r="J70" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K70" s="185"/>
       <c r="L70" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="141" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B71" s="156" t="s">
         <v>457</v>
@@ -23789,16 +23792,16 @@
       <c r="H71" s="55"/>
       <c r="I71" s="88"/>
       <c r="J71" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K71" s="185"/>
       <c r="L71" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="141" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B72" s="156" t="s">
         <v>457</v>
@@ -23819,16 +23822,16 @@
       <c r="H72" s="55"/>
       <c r="I72" s="88"/>
       <c r="J72" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K72" s="185"/>
       <c r="L72" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="24">
       <c r="A73" s="141" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B73" s="169" t="s">
         <v>457</v>
@@ -23847,16 +23850,16 @@
       </c>
       <c r="I73" s="88"/>
       <c r="J73" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K73" s="185"/>
       <c r="L73" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="141" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B74" s="156" t="s">
         <v>457</v>
@@ -23868,23 +23871,23 @@
         <v>4.5</v>
       </c>
       <c r="E74" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F74" s="158"/>
       <c r="G74" s="158"/>
       <c r="H74" s="90"/>
       <c r="I74" s="88"/>
       <c r="J74" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K74" s="185"/>
       <c r="L74" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="36.75">
       <c r="A75" s="141" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B75" s="156" t="s">
         <v>457</v>
@@ -23901,16 +23904,16 @@
       </c>
       <c r="I75" s="88"/>
       <c r="J75" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K75" s="185"/>
       <c r="L75" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="72.75">
       <c r="A76" s="141" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B76" s="174" t="s">
         <v>579</v>
@@ -23933,16 +23936,16 @@
       </c>
       <c r="I76" s="88"/>
       <c r="J76" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K76" s="185"/>
       <c r="L76" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="141" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B77" s="156" t="s">
         <v>457</v>
@@ -23963,16 +23966,16 @@
       <c r="H77" s="90"/>
       <c r="I77" s="92"/>
       <c r="J77" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K77" s="185"/>
       <c r="L77" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="141" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B78" s="156" t="s">
         <v>457</v>
@@ -23991,16 +23994,16 @@
       </c>
       <c r="I78" s="88"/>
       <c r="J78" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K78" s="185"/>
       <c r="L78" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="24.75">
       <c r="A79" s="141" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B79" s="184" t="s">
         <v>579</v>
@@ -24023,16 +24026,16 @@
       </c>
       <c r="I79" s="88"/>
       <c r="J79" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K79" s="185"/>
       <c r="L79" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="48.75">
       <c r="A80" s="141" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B80" s="156" t="s">
         <v>457</v>
@@ -24055,16 +24058,16 @@
       </c>
       <c r="I80" s="88"/>
       <c r="J80" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K80" s="185"/>
       <c r="L80" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="141" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B81" s="156" t="s">
         <v>457</v>
@@ -24079,16 +24082,16 @@
       <c r="H81" s="91"/>
       <c r="I81" s="88"/>
       <c r="J81" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K81" s="185"/>
       <c r="L81" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="24">
       <c r="A82" s="141" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B82" s="156" t="s">
         <v>457</v>
@@ -24107,16 +24110,16 @@
       </c>
       <c r="I82" s="88"/>
       <c r="J82" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K82" s="185"/>
       <c r="L82" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="152" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B83" s="156" t="s">
         <v>457</v>
@@ -24137,16 +24140,16 @@
       <c r="H83" s="90"/>
       <c r="I83" s="88"/>
       <c r="J83" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K83" s="185"/>
       <c r="L83" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="141" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B84" s="156" t="s">
         <v>457</v>
@@ -24167,16 +24170,16 @@
       <c r="H84" s="90"/>
       <c r="I84" s="88"/>
       <c r="J84" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K84" s="185"/>
       <c r="L84" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="141" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B85" s="160" t="s">
         <v>457</v>
@@ -24193,16 +24196,16 @@
       </c>
       <c r="I85" s="88"/>
       <c r="J85" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K85" s="185"/>
       <c r="L85" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="36">
       <c r="A86" s="141" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B86" s="184" t="s">
         <v>10</v>
@@ -24223,16 +24226,16 @@
       </c>
       <c r="I86" s="88"/>
       <c r="J86" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K86" s="185"/>
       <c r="L86" s="103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="141" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B87" s="156" t="s">
         <v>457</v>
@@ -24250,12 +24253,12 @@
         <v>590</v>
       </c>
       <c r="J87" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="141" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B88" s="156" t="s">
         <v>457</v>
@@ -24267,16 +24270,16 @@
         <v>102</v>
       </c>
       <c r="E88" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F88" s="191"/>
       <c r="J88" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="152" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B89" s="156" t="s">
         <v>457</v>
@@ -24294,12 +24297,12 @@
         <v>590</v>
       </c>
       <c r="J89" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="141" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B90" s="156" t="s">
         <v>457</v>
@@ -24317,12 +24320,12 @@
         <v>590</v>
       </c>
       <c r="J90" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="141" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B91" s="156" t="s">
         <v>457</v>
@@ -24340,12 +24343,12 @@
         <v>590</v>
       </c>
       <c r="J91" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="141" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B92" s="156" t="s">
         <v>457</v>
@@ -24357,16 +24360,16 @@
         <v>4.5</v>
       </c>
       <c r="E92" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F92" s="191"/>
       <c r="J92" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="152" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B93" s="156" t="s">
         <v>457</v>
@@ -24384,12 +24387,12 @@
         <v>590</v>
       </c>
       <c r="J93" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="141" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B94" s="156" t="s">
         <v>457</v>
@@ -24407,12 +24410,12 @@
         <v>590</v>
       </c>
       <c r="J94" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="141" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B95" s="156" t="s">
         <v>457</v>
@@ -24430,12 +24433,12 @@
         <v>590</v>
       </c>
       <c r="J95" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="141" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B96" s="156" t="s">
         <v>457</v>
@@ -24447,16 +24450,16 @@
         <v>102</v>
       </c>
       <c r="E96" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F96" s="191"/>
       <c r="J96" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="152" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B97" s="156" t="s">
         <v>457</v>
@@ -24474,12 +24477,12 @@
         <v>590</v>
       </c>
       <c r="J97" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="141" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B98" s="156" t="s">
         <v>457</v>
@@ -24497,12 +24500,12 @@
         <v>590</v>
       </c>
       <c r="J98" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="141" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B99" s="156" t="s">
         <v>457</v>
@@ -24520,12 +24523,12 @@
         <v>590</v>
       </c>
       <c r="J99" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="141" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B100" s="156" t="s">
         <v>457</v>
@@ -24537,16 +24540,16 @@
         <v>4.5</v>
       </c>
       <c r="E100" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F100" s="191"/>
       <c r="J100" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="152" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B101" s="156" t="s">
         <v>457</v>
@@ -24564,12 +24567,12 @@
         <v>590</v>
       </c>
       <c r="J101" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="141" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B102" s="156" t="s">
         <v>457</v>
@@ -24587,12 +24590,12 @@
         <v>590</v>
       </c>
       <c r="J102" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="141" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B103" s="156" t="s">
         <v>457</v>
@@ -24610,12 +24613,12 @@
         <v>590</v>
       </c>
       <c r="J103" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="141" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B104" s="156" t="s">
         <v>457</v>
@@ -24627,16 +24630,16 @@
         <v>102</v>
       </c>
       <c r="E104" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F104" s="191"/>
       <c r="J104" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="152" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B105" s="156" t="s">
         <v>457</v>
@@ -24654,12 +24657,12 @@
         <v>590</v>
       </c>
       <c r="J105" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="141" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B106" s="156" t="s">
         <v>457</v>
@@ -24677,12 +24680,12 @@
         <v>590</v>
       </c>
       <c r="J106" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="141" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B107" s="156" t="s">
         <v>457</v>
@@ -24700,12 +24703,12 @@
         <v>590</v>
       </c>
       <c r="J107" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="141" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B108" s="156" t="s">
         <v>457</v>
@@ -24717,16 +24720,16 @@
         <v>4.5</v>
       </c>
       <c r="E108" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F108" s="191"/>
       <c r="J108" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="152" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B109" s="156" t="s">
         <v>457</v>
@@ -24744,12 +24747,12 @@
         <v>590</v>
       </c>
       <c r="J109" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="141" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B110" s="156" t="s">
         <v>457</v>
@@ -24767,12 +24770,12 @@
         <v>590</v>
       </c>
       <c r="J110" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="141" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B111" s="156" t="s">
         <v>457</v>
@@ -24790,12 +24793,12 @@
         <v>590</v>
       </c>
       <c r="J111" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="141" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B112" s="156" t="s">
         <v>457</v>
@@ -24807,16 +24810,16 @@
         <v>102</v>
       </c>
       <c r="E112" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F112" s="191"/>
       <c r="J112" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="152" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B113" s="156" t="s">
         <v>457</v>
@@ -24834,12 +24837,12 @@
         <v>590</v>
       </c>
       <c r="J113" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="141" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B114" s="156" t="s">
         <v>457</v>
@@ -24857,12 +24860,12 @@
         <v>590</v>
       </c>
       <c r="J114" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="141" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B115" s="156" t="s">
         <v>457</v>
@@ -24880,12 +24883,12 @@
         <v>590</v>
       </c>
       <c r="J115" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="141" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B116" s="156" t="s">
         <v>457</v>
@@ -24897,16 +24900,16 @@
         <v>4.5</v>
       </c>
       <c r="E116" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F116" s="191"/>
       <c r="J116" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="152" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B117" s="156" t="s">
         <v>457</v>
@@ -24924,12 +24927,12 @@
         <v>590</v>
       </c>
       <c r="J117" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="141" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B118" s="156" t="s">
         <v>457</v>
@@ -24947,12 +24950,12 @@
         <v>590</v>
       </c>
       <c r="J118" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="141" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B119" s="156" t="s">
         <v>457</v>
@@ -24970,12 +24973,12 @@
         <v>590</v>
       </c>
       <c r="J119" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="141" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B120" s="156" t="s">
         <v>457</v>
@@ -24987,16 +24990,16 @@
         <v>102</v>
       </c>
       <c r="E120" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F120" s="191"/>
       <c r="J120" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="152" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B121" s="156" t="s">
         <v>457</v>
@@ -25014,12 +25017,12 @@
         <v>590</v>
       </c>
       <c r="J121" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="141" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B122" s="156" t="s">
         <v>457</v>
@@ -25037,12 +25040,12 @@
         <v>590</v>
       </c>
       <c r="J122" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="141" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B123" s="156" t="s">
         <v>457</v>
@@ -25060,12 +25063,12 @@
         <v>590</v>
       </c>
       <c r="J123" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="141" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B124" s="156" t="s">
         <v>457</v>
@@ -25077,16 +25080,16 @@
         <v>4.5</v>
       </c>
       <c r="E124" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F124" s="191"/>
       <c r="J124" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="152" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B125" s="156" t="s">
         <v>457</v>
@@ -25104,12 +25107,12 @@
         <v>590</v>
       </c>
       <c r="J125" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="141" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B126" s="156" t="s">
         <v>457</v>
@@ -25127,12 +25130,12 @@
         <v>590</v>
       </c>
       <c r="J126" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="141" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B127" s="156" t="s">
         <v>457</v>
@@ -25150,12 +25153,12 @@
         <v>590</v>
       </c>
       <c r="J127" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="141" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B128" s="156" t="s">
         <v>457</v>
@@ -25167,16 +25170,16 @@
         <v>102</v>
       </c>
       <c r="E128" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F128" s="191"/>
       <c r="J128" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="152" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B129" s="156" t="s">
         <v>457</v>
@@ -25194,12 +25197,12 @@
         <v>590</v>
       </c>
       <c r="J129" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="141" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B130" s="156" t="s">
         <v>457</v>
@@ -25217,12 +25220,12 @@
         <v>590</v>
       </c>
       <c r="J130" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="141" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B131" s="156" t="s">
         <v>457</v>
@@ -25240,12 +25243,12 @@
         <v>590</v>
       </c>
       <c r="J131" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="141" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B132" s="156" t="s">
         <v>457</v>
@@ -25257,16 +25260,16 @@
         <v>4.5</v>
       </c>
       <c r="E132" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F132" s="191"/>
       <c r="J132" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="152" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B133" s="156" t="s">
         <v>457</v>
@@ -25284,12 +25287,12 @@
         <v>590</v>
       </c>
       <c r="J133" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="141" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B134" s="156" t="s">
         <v>457</v>
@@ -25307,12 +25310,12 @@
         <v>590</v>
       </c>
       <c r="J134" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="141" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B135" s="156" t="s">
         <v>457</v>
@@ -25330,12 +25333,12 @@
         <v>590</v>
       </c>
       <c r="J135" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="141" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B136" s="156" t="s">
         <v>457</v>
@@ -25347,16 +25350,16 @@
         <v>102</v>
       </c>
       <c r="E136" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F136" s="191"/>
       <c r="J136" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="152" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B137" s="156" t="s">
         <v>457</v>
@@ -25374,12 +25377,12 @@
         <v>590</v>
       </c>
       <c r="J137" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="141" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B138" s="156" t="s">
         <v>457</v>
@@ -25397,12 +25400,12 @@
         <v>590</v>
       </c>
       <c r="J138" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="141" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B139" s="156" t="s">
         <v>457</v>
@@ -25420,12 +25423,12 @@
         <v>590</v>
       </c>
       <c r="J139" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="141" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B140" s="156" t="s">
         <v>457</v>
@@ -25437,16 +25440,16 @@
         <v>4.5</v>
       </c>
       <c r="E140" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F140" s="191"/>
       <c r="J140" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="152" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B141" s="156" t="s">
         <v>457</v>
@@ -25464,12 +25467,12 @@
         <v>590</v>
       </c>
       <c r="J141" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="141" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B142" s="156" t="s">
         <v>457</v>
@@ -25487,12 +25490,12 @@
         <v>590</v>
       </c>
       <c r="J142" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="141" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B143" s="156" t="s">
         <v>457</v>
@@ -25510,12 +25513,12 @@
         <v>590</v>
       </c>
       <c r="J143" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="141" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B144" s="156" t="s">
         <v>457</v>
@@ -25527,16 +25530,16 @@
         <v>102</v>
       </c>
       <c r="E144" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F144" s="191"/>
       <c r="J144" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="152" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B145" s="156" t="s">
         <v>457</v>
@@ -25554,12 +25557,12 @@
         <v>590</v>
       </c>
       <c r="J145" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="141" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B146" s="156" t="s">
         <v>457</v>
@@ -25577,12 +25580,12 @@
         <v>590</v>
       </c>
       <c r="J146" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="141" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B147" s="156" t="s">
         <v>457</v>
@@ -25600,12 +25603,12 @@
         <v>590</v>
       </c>
       <c r="J147" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="141" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B148" s="156" t="s">
         <v>457</v>
@@ -25617,16 +25620,16 @@
         <v>4.5</v>
       </c>
       <c r="E148" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F148" s="191"/>
       <c r="J148" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="152" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B149" s="156" t="s">
         <v>457</v>
@@ -25644,12 +25647,12 @@
         <v>590</v>
       </c>
       <c r="J149" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="141" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B150" s="156" t="s">
         <v>457</v>
@@ -25667,12 +25670,12 @@
         <v>590</v>
       </c>
       <c r="J150" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="141" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B151" s="156" t="s">
         <v>457</v>
@@ -25690,12 +25693,12 @@
         <v>590</v>
       </c>
       <c r="J151" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="141" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B152" s="156" t="s">
         <v>457</v>
@@ -25707,16 +25710,16 @@
         <v>102</v>
       </c>
       <c r="E152" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F152" s="191"/>
       <c r="J152" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="152" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B153" s="156" t="s">
         <v>457</v>
@@ -25734,12 +25737,12 @@
         <v>590</v>
       </c>
       <c r="J153" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="141" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B154" s="156" t="s">
         <v>457</v>
@@ -25757,12 +25760,12 @@
         <v>590</v>
       </c>
       <c r="J154" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="141" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B155" s="156" t="s">
         <v>457</v>
@@ -25780,12 +25783,12 @@
         <v>590</v>
       </c>
       <c r="J155" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="141" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B156" s="156" t="s">
         <v>457</v>
@@ -25797,16 +25800,16 @@
         <v>4.5</v>
       </c>
       <c r="E156" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F156" s="191"/>
       <c r="J156" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="152" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B157" s="156" t="s">
         <v>457</v>
@@ -25824,12 +25827,12 @@
         <v>590</v>
       </c>
       <c r="J157" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="141" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B158" s="156" t="s">
         <v>457</v>
@@ -25847,12 +25850,12 @@
         <v>590</v>
       </c>
       <c r="J158" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="141" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B159" s="156" t="s">
         <v>457</v>
@@ -25870,12 +25873,12 @@
         <v>590</v>
       </c>
       <c r="J159" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="141" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B160" s="156" t="s">
         <v>457</v>
@@ -25887,16 +25890,16 @@
         <v>102</v>
       </c>
       <c r="E160" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F160" s="191"/>
       <c r="J160" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="152" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B161" s="156" t="s">
         <v>457</v>
@@ -25914,12 +25917,12 @@
         <v>590</v>
       </c>
       <c r="J161" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="141" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B162" s="156" t="s">
         <v>457</v>
@@ -25937,12 +25940,12 @@
         <v>590</v>
       </c>
       <c r="J162" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="141" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B163" s="156" t="s">
         <v>457</v>
@@ -25960,12 +25963,12 @@
         <v>590</v>
       </c>
       <c r="J163" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="141" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B164" s="156" t="s">
         <v>457</v>
@@ -25977,16 +25980,16 @@
         <v>4.5</v>
       </c>
       <c r="E164" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F164" s="191"/>
       <c r="J164" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="152" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B165" s="156" t="s">
         <v>457</v>
@@ -26004,12 +26007,12 @@
         <v>590</v>
       </c>
       <c r="J165" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="141" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B166" s="156" t="s">
         <v>457</v>
@@ -26027,12 +26030,12 @@
         <v>590</v>
       </c>
       <c r="J166" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="141" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B167" s="156" t="s">
         <v>457</v>
@@ -26050,12 +26053,12 @@
         <v>590</v>
       </c>
       <c r="J167" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="141" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B168" s="156" t="s">
         <v>457</v>
@@ -26067,16 +26070,16 @@
         <v>102</v>
       </c>
       <c r="E168" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F168" s="191"/>
       <c r="J168" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="152" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B169" s="156" t="s">
         <v>457</v>
@@ -26094,12 +26097,12 @@
         <v>590</v>
       </c>
       <c r="J169" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="141" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B170" s="156" t="s">
         <v>457</v>
@@ -26117,12 +26120,12 @@
         <v>590</v>
       </c>
       <c r="J170" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" s="141" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B171" s="156" t="s">
         <v>457</v>
@@ -26140,12 +26143,12 @@
         <v>590</v>
       </c>
       <c r="J171" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" s="141" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B172" s="156" t="s">
         <v>457</v>
@@ -26157,16 +26160,16 @@
         <v>4.5</v>
       </c>
       <c r="E172" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F172" s="191"/>
       <c r="J172" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="152" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B173" s="156" t="s">
         <v>457</v>
@@ -26184,12 +26187,12 @@
         <v>590</v>
       </c>
       <c r="J173" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="141" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B174" s="156" t="s">
         <v>457</v>
@@ -26207,12 +26210,12 @@
         <v>590</v>
       </c>
       <c r="J174" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="141" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B175" s="156" t="s">
         <v>457</v>
@@ -26230,12 +26233,12 @@
         <v>590</v>
       </c>
       <c r="J175" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="141" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B176" s="156" t="s">
         <v>457</v>
@@ -26247,16 +26250,16 @@
         <v>102</v>
       </c>
       <c r="E176" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F176" s="191"/>
       <c r="J176" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="152" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B177" s="156" t="s">
         <v>457</v>
@@ -26274,12 +26277,12 @@
         <v>590</v>
       </c>
       <c r="J177" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="141" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B178" s="156" t="s">
         <v>457</v>
@@ -26297,12 +26300,12 @@
         <v>590</v>
       </c>
       <c r="J178" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="141" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B179" s="156" t="s">
         <v>457</v>
@@ -26320,12 +26323,12 @@
         <v>590</v>
       </c>
       <c r="J179" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="141" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B180" s="156" t="s">
         <v>457</v>
@@ -26337,16 +26340,16 @@
         <v>4.5</v>
       </c>
       <c r="E180" s="156" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F180" s="191"/>
       <c r="J180" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="152" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B181" s="156" t="s">
         <v>457</v>
@@ -26364,12 +26367,12 @@
         <v>590</v>
       </c>
       <c r="J181" s="103" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="141" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B182" s="156" t="s">
         <v>457</v>
@@ -26387,7 +26390,7 @@
         <v>590</v>
       </c>
       <c r="J182" s="194" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="183" spans="1:10">
